--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="pt" sheetId="1" r:id="rId4"/>
+    <sheet name="sadfafhsfc" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>Jadwal Imam Qo'ah kelas 6</t>
   </si>
@@ -29,346 +29,565 @@
     <t>Subuh</t>
   </si>
   <si>
-    <t xml:space="preserve">  TTD  </t>
+    <t>Dhuha</t>
   </si>
   <si>
     <t>Dzuhur</t>
   </si>
   <si>
-    <t>Ashar</t>
-  </si>
-  <si>
-    <t>13-11-2024</t>
+    <t>24-12-2024</t>
+  </si>
+  <si>
+    <t>Faishal Dzaky R</t>
+  </si>
+  <si>
+    <t>M Zidan Rahmat J</t>
+  </si>
+  <si>
+    <t>M Fitra Ramadhan</t>
+  </si>
+  <si>
+    <t>25-12-2024</t>
+  </si>
+  <si>
+    <t>M Faiz Al Faridz</t>
+  </si>
+  <si>
+    <t>Handika Ahmad Y</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>26-12-2024</t>
+  </si>
+  <si>
+    <t>M Ghozy Ghiffari</t>
+  </si>
+  <si>
+    <t>Naufal Abid R</t>
+  </si>
+  <si>
+    <t>Adnan Darmawan P</t>
+  </si>
+  <si>
+    <t>27-12-2024</t>
+  </si>
+  <si>
+    <t>M Raihan Atqiya Al</t>
+  </si>
+  <si>
+    <t>Virgie M Yassarsyah</t>
+  </si>
+  <si>
+    <t>28-12-2024</t>
+  </si>
+  <si>
+    <t>Arrapi Mizan H</t>
+  </si>
+  <si>
+    <t>29-12-2024</t>
+  </si>
+  <si>
+    <t>M Wildan El-Ghiffari</t>
+  </si>
+  <si>
+    <t>M Arip Ibnu U</t>
+  </si>
+  <si>
+    <t>M Rayfa Izyan R</t>
+  </si>
+  <si>
+    <t>30-12-2024</t>
+  </si>
+  <si>
+    <t>M Dzikri Poetra H</t>
+  </si>
+  <si>
+    <t>Nadif Abiyu P A</t>
+  </si>
+  <si>
+    <t>Rasyad NDG</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
+  </si>
+  <si>
+    <t>Balya Ibnu M</t>
+  </si>
+  <si>
+    <t>Putra Bernama A R</t>
+  </si>
+  <si>
+    <t>Zacky Achmad F R</t>
+  </si>
+  <si>
+    <t>01-01-2025</t>
+  </si>
+  <si>
+    <t>M Nur Fauzaan</t>
+  </si>
+  <si>
+    <t>Faris Tazakka</t>
+  </si>
+  <si>
+    <t>Shibyan Dwi F N</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>Febryan Pandu R</t>
+  </si>
+  <si>
+    <t>Moch Eberta Zacky A</t>
+  </si>
+  <si>
+    <t>M Fakhri Gumilar</t>
+  </si>
+  <si>
+    <t>03-01-2025</t>
+  </si>
+  <si>
+    <t>Luthfi Syamsul M</t>
+  </si>
+  <si>
+    <t>Edrick Ghalin G</t>
+  </si>
+  <si>
+    <t>04-01-2025</t>
+  </si>
+  <si>
+    <t>M Fakhri Syafarudin</t>
+  </si>
+  <si>
+    <t>05-01-2025</t>
+  </si>
+  <si>
+    <t>Raditya Aqbar P</t>
+  </si>
+  <si>
+    <t>Gema Ramadhan P</t>
+  </si>
+  <si>
+    <t>Zacky Maulana A</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>Rashya Meidistra L</t>
+  </si>
+  <si>
+    <t>Moh Azzam Alfahrizi</t>
+  </si>
+  <si>
+    <t>Muh. Qoomroo Nibroos</t>
+  </si>
+  <si>
+    <t>07-01-2025</t>
+  </si>
+  <si>
+    <t>Aldik Nur K</t>
+  </si>
+  <si>
+    <t>Hafizh Ahmad M</t>
+  </si>
+  <si>
+    <t>Yazid Sa'Id Nashir</t>
+  </si>
+  <si>
+    <t>08-01-2025</t>
+  </si>
+  <si>
+    <t>Narayana Khairy  P Y</t>
+  </si>
+  <si>
+    <t>Dirgantara Putra S</t>
+  </si>
+  <si>
+    <t>Alfi Hafizh N F</t>
+  </si>
+  <si>
+    <t>09-01-2025</t>
+  </si>
+  <si>
+    <t>M Syahrul Umamil A</t>
+  </si>
+  <si>
+    <t>Alpha Daffa A</t>
+  </si>
+  <si>
+    <t>M Munfareja</t>
+  </si>
+  <si>
+    <t>10-01-2025</t>
+  </si>
+  <si>
+    <t>M Afgan Abdul D</t>
+  </si>
+  <si>
+    <t>M Zaky Mubarok</t>
+  </si>
+  <si>
+    <t>11-01-2025</t>
+  </si>
+  <si>
+    <t>M Rafa Al Hafizh</t>
+  </si>
+  <si>
+    <t>12-01-2025</t>
+  </si>
+  <si>
+    <t>Riyadh Al-Kaisha R A</t>
+  </si>
+  <si>
+    <t>M Fauzi Mulyawan</t>
+  </si>
+  <si>
+    <t>Dimas Nabil F</t>
+  </si>
+  <si>
+    <t>13-01-2025</t>
+  </si>
+  <si>
+    <t>ahmad Haedar S</t>
+  </si>
+  <si>
+    <t>M Syihab Insani</t>
+  </si>
+  <si>
+    <t>Moch. Farel Firzatullah</t>
+  </si>
+  <si>
+    <t>14-01-2025</t>
+  </si>
+  <si>
+    <t>Fadhillah Rahmat D F</t>
+  </si>
+  <si>
+    <t>M Ariel Putra D K</t>
+  </si>
+  <si>
+    <t>M Abdul Aziz</t>
+  </si>
+  <si>
+    <t>15-01-2025</t>
+  </si>
+  <si>
+    <t>Raqiy M Putra N</t>
+  </si>
+  <si>
+    <t>Zian Najib</t>
+  </si>
+  <si>
+    <t>Sabbah Al-Maydas J</t>
+  </si>
+  <si>
+    <t>16-01-2025</t>
+  </si>
+  <si>
+    <t>Syahran Fauzan S S</t>
+  </si>
+  <si>
+    <t>Fajar Nugraha</t>
+  </si>
+  <si>
+    <t>Faiz Muttaqi</t>
+  </si>
+  <si>
+    <t>17-01-2025</t>
+  </si>
+  <si>
+    <t>Rafi Nugraha</t>
+  </si>
+  <si>
+    <t>M Raazka Nazri A</t>
+  </si>
+  <si>
+    <t>18-01-2025</t>
+  </si>
+  <si>
+    <t>Indra M Ardiansyah</t>
+  </si>
+  <si>
+    <t>19-01-2025</t>
+  </si>
+  <si>
+    <t>M Kahfi Morselino L</t>
+  </si>
+  <si>
+    <t>Alif Nul Hakim</t>
+  </si>
+  <si>
+    <t>Hafizh Zam Zam Al</t>
+  </si>
+  <si>
+    <t>20-01-2025</t>
+  </si>
+  <si>
+    <t>Rafli Ahmad</t>
+  </si>
+  <si>
+    <t>Triansah Abdillah</t>
+  </si>
+  <si>
+    <t>M Rifky Fauzan</t>
+  </si>
+  <si>
+    <t>21-01-2025</t>
+  </si>
+  <si>
+    <t>Shalman Firdaus</t>
+  </si>
+  <si>
+    <t>M Azel Zikrullah H</t>
+  </si>
+  <si>
+    <t>M Rassya Lesmana P</t>
+  </si>
+  <si>
+    <t>22-01-2025</t>
+  </si>
+  <si>
+    <t>M Daffa Fadillah</t>
+  </si>
+  <si>
+    <t>Najmi Salim A</t>
+  </si>
+  <si>
+    <t>Dzira M Zundullah</t>
+  </si>
+  <si>
+    <t>23-01-2025</t>
+  </si>
+  <si>
+    <t>M Juldan Firdaus</t>
+  </si>
+  <si>
+    <t>Reshilanang Salya J</t>
+  </si>
+  <si>
+    <t>Taqiyya M Khofiyya</t>
+  </si>
+  <si>
+    <t>24-01-2025</t>
+  </si>
+  <si>
+    <t>Reyhan Noer K</t>
+  </si>
+  <si>
+    <t>Fawwaz Nur F</t>
+  </si>
+  <si>
+    <t>25-01-2025</t>
+  </si>
+  <si>
+    <t>Rayhan Arib A</t>
+  </si>
+  <si>
+    <t>26-01-2025</t>
+  </si>
+  <si>
+    <t>Syauqi Zaky</t>
+  </si>
+  <si>
+    <t>Alfian Nurul H</t>
+  </si>
+  <si>
+    <t>Abna</t>
+  </si>
+  <si>
+    <t>27-01-2025</t>
+  </si>
+  <si>
+    <t>M Rafa Fadhilah E</t>
+  </si>
+  <si>
+    <t>Rodiyyan Hadi N</t>
+  </si>
+  <si>
+    <t>M. Khaliz Al</t>
+  </si>
+  <si>
+    <t>28-01-2025</t>
+  </si>
+  <si>
+    <t>Himada Malik S</t>
+  </si>
+  <si>
+    <t>Hafiz Rayhan A A</t>
+  </si>
+  <si>
+    <t>Ova Mustofa</t>
+  </si>
+  <si>
+    <t>29-01-2025</t>
+  </si>
+  <si>
+    <t>Daffa Syauqi R</t>
+  </si>
+  <si>
+    <t>Hassan Musa K R</t>
+  </si>
+  <si>
+    <t>M. Yusuf Fahri S</t>
+  </si>
+  <si>
+    <t>30-01-2025</t>
+  </si>
+  <si>
+    <t>Hafizh Ali A</t>
+  </si>
+  <si>
+    <t>Zulfikar Fadhillah Y</t>
+  </si>
+  <si>
+    <t>M Athar Rayhan</t>
+  </si>
+  <si>
+    <t>31-01-2025</t>
+  </si>
+  <si>
+    <t>Fadhli Dhiya'Ul Haq</t>
+  </si>
+  <si>
+    <t>M Zaky</t>
+  </si>
+  <si>
+    <t>01-02-2025</t>
+  </si>
+  <si>
+    <t>Hafiz Ikhwanu A</t>
+  </si>
+  <si>
+    <t>02-02-2025</t>
+  </si>
+  <si>
+    <t>Dzaky Fadhil I D</t>
+  </si>
+  <si>
+    <t>M Pasya Arido</t>
+  </si>
+  <si>
+    <t>M Wildan Kholilulloh</t>
+  </si>
+  <si>
+    <t>03-02-2025</t>
+  </si>
+  <si>
+    <t>Haisham Baihaqie Y</t>
+  </si>
+  <si>
+    <t>Suhendar Fansuri</t>
+  </si>
+  <si>
+    <t>M Ahsan Suryanaputra</t>
+  </si>
+  <si>
+    <t>04-02-2025</t>
+  </si>
+  <si>
+    <t>Sabda Akbar A</t>
   </si>
   <si>
     <t>M Rafi Mughni A</t>
   </si>
   <si>
-    <t>M Dzikri Poetra H</t>
-  </si>
-  <si>
-    <t>Hafizh Ali A</t>
-  </si>
-  <si>
-    <t>14-11-2024</t>
-  </si>
-  <si>
-    <t>M Fauzi Mulyawan</t>
-  </si>
-  <si>
-    <t>M Daffa Fadillah</t>
-  </si>
-  <si>
-    <t>M Nur Fauzaan</t>
-  </si>
-  <si>
-    <t>15-11-2024</t>
-  </si>
-  <si>
-    <t>ahmad Haedar S</t>
-  </si>
-  <si>
-    <t>16-11-2024</t>
-  </si>
-  <si>
-    <t>Shalman Firdaus</t>
-  </si>
-  <si>
-    <t>Alfian Nurul H</t>
-  </si>
-  <si>
-    <t>17-11-2024</t>
-  </si>
-  <si>
-    <t>Rashya Meidistra L</t>
-  </si>
-  <si>
-    <t>Naufal Abid R</t>
-  </si>
-  <si>
-    <t>Shibyan Dwi F N</t>
-  </si>
-  <si>
-    <t>18-11-2024</t>
-  </si>
-  <si>
-    <t>Triansah Abdillah</t>
-  </si>
-  <si>
-    <t>M Syahrul Umamil A</t>
-  </si>
-  <si>
-    <t>Reyhan Noer K</t>
-  </si>
-  <si>
-    <t>19-11-2024</t>
-  </si>
-  <si>
-    <t>Balya Ibnu M</t>
-  </si>
-  <si>
-    <t>Faishal Dzaky R</t>
+    <t>M Daffa Al-Khoiri S</t>
+  </si>
+  <si>
+    <t>05-02-2025</t>
+  </si>
+  <si>
+    <t>Zalfy Athaillah A</t>
+  </si>
+  <si>
+    <t>Ilham Riyadi</t>
   </si>
   <si>
     <t>Alan Maulana S</t>
   </si>
   <si>
-    <t>20-11-2024</t>
-  </si>
-  <si>
-    <t>M Ariel Putra D K</t>
-  </si>
-  <si>
-    <t>Alfi Hafizh N F</t>
-  </si>
-  <si>
-    <t>M Wildan El-Ghiffari</t>
-  </si>
-  <si>
-    <t>21-11-2024</t>
+    <t>06-02-2025</t>
+  </si>
+  <si>
+    <t>M. Fachry Fadilah</t>
+  </si>
+  <si>
+    <t>M Rifaq</t>
+  </si>
+  <si>
+    <t>M Azhar Firdhaus</t>
+  </si>
+  <si>
+    <t>07-02-2025</t>
+  </si>
+  <si>
+    <t>M Fakhru Syakir</t>
+  </si>
+  <si>
+    <t>Fikri Nur Syifa</t>
+  </si>
+  <si>
+    <t>08-02-2025</t>
+  </si>
+  <si>
+    <t>M Daiva Pratama</t>
+  </si>
+  <si>
+    <t>09-02-2025</t>
+  </si>
+  <si>
+    <t>Naufal Nibras</t>
+  </si>
+  <si>
+    <t>Akmal Yazid R</t>
+  </si>
+  <si>
+    <t>Ali Fauzi Sukma</t>
+  </si>
+  <si>
+    <t>10-02-2025</t>
+  </si>
+  <si>
+    <t>M Rifqy Firdaus N</t>
   </si>
   <si>
     <t>M Sudarman Fakih</t>
   </si>
   <si>
-    <t>Najmi Salim A</t>
-  </si>
-  <si>
-    <t>Abdurrahman Abiyoso</t>
-  </si>
-  <si>
-    <t>22-11-2024</t>
-  </si>
-  <si>
-    <t>M Ahsan Suryanaputra</t>
-  </si>
-  <si>
-    <t>23-11-2024</t>
-  </si>
-  <si>
-    <t>Abdan Fauzan M</t>
-  </si>
-  <si>
-    <t>Moch Eberta Zacky A</t>
-  </si>
-  <si>
-    <t>24-11-2024</t>
-  </si>
-  <si>
-    <t>Ali Fauzi Sukma</t>
-  </si>
-  <si>
-    <t>M Rafa Fadhilah E</t>
-  </si>
-  <si>
-    <t>Zian Najib</t>
-  </si>
-  <si>
-    <t>25-11-2024</t>
-  </si>
-  <si>
-    <t>Zalfy Athaillah A</t>
-  </si>
-  <si>
-    <t>Taqiyya M Khofiyya</t>
-  </si>
-  <si>
-    <t>M Rafa Al Hafizh</t>
-  </si>
-  <si>
-    <t>26-11-2024</t>
-  </si>
-  <si>
-    <t>Edrick Ghalin G</t>
-  </si>
-  <si>
-    <t>M Raihan Atqiya Al</t>
-  </si>
-  <si>
-    <t>Daffa Syauqi R</t>
-  </si>
-  <si>
-    <t>27-11-2024</t>
-  </si>
-  <si>
-    <t>Rafi Nugraha</t>
-  </si>
-  <si>
-    <t>M Faiz Al Faridz</t>
-  </si>
-  <si>
-    <t>Rafli Ahmad</t>
-  </si>
-  <si>
-    <t>28-11-2024</t>
-  </si>
-  <si>
-    <t>Nadif Abiyu P A</t>
-  </si>
-  <si>
-    <t>M Juldan Firdaus</t>
-  </si>
-  <si>
-    <t>M Fakhru Syakir</t>
-  </si>
-  <si>
-    <t>29-11-2024</t>
-  </si>
-  <si>
-    <t>Adnan Darmawan P</t>
-  </si>
-  <si>
-    <t>30-11-2024</t>
-  </si>
-  <si>
-    <t>M Munfareja</t>
-  </si>
-  <si>
-    <t>Syauqi Zaky</t>
-  </si>
-  <si>
-    <t>01-12-2024</t>
-  </si>
-  <si>
-    <t>Zacky Maulana A</t>
-  </si>
-  <si>
-    <t>Rayhan Arib A</t>
-  </si>
-  <si>
-    <t>Syahran Fauzan S S</t>
-  </si>
-  <si>
-    <t>02-12-2024</t>
-  </si>
-  <si>
-    <t>M. Yusuf Fahri S</t>
-  </si>
-  <si>
-    <t>Arrapi Mizan H</t>
-  </si>
-  <si>
-    <t>Dimas Nabil F</t>
-  </si>
-  <si>
-    <t>03-12-2024</t>
-  </si>
-  <si>
-    <t>Faiz Muttaqi</t>
-  </si>
-  <si>
-    <t>Aldik Nur K</t>
-  </si>
-  <si>
-    <t>M. Khaliz Al</t>
-  </si>
-  <si>
-    <t>04-12-2024</t>
-  </si>
-  <si>
-    <t>Luthfi Syamsul M</t>
+    <t>Bintang Najmuddin</t>
+  </si>
+  <si>
+    <t>11-02-2025</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>M Raafi Syahbani</t>
+  </si>
+  <si>
+    <t>M Rizky Firdaus</t>
+  </si>
+  <si>
+    <t>12-02-2025</t>
+  </si>
+  <si>
+    <t>Ahmad Haedar S</t>
+  </si>
+  <si>
+    <t>M Ali Mutaqqin</t>
+  </si>
+  <si>
+    <t>Pandu Esha S</t>
+  </si>
+  <si>
+    <t>13-02-2025</t>
   </si>
   <si>
     <t>Angga Aprianta S</t>
-  </si>
-  <si>
-    <t>Hassan Musa K R</t>
-  </si>
-  <si>
-    <t>05-12-2024</t>
-  </si>
-  <si>
-    <t>M Ghozy Ghiffari</t>
-  </si>
-  <si>
-    <t>Dirgantara Putra S</t>
-  </si>
-  <si>
-    <t>Ova Mustofa</t>
-  </si>
-  <si>
-    <t>06-12-2024</t>
-  </si>
-  <si>
-    <t>Dzaky Fadhil I D</t>
-  </si>
-  <si>
-    <t>07-12-2024</t>
-  </si>
-  <si>
-    <t>Reshilanang Salya J</t>
-  </si>
-  <si>
-    <t>Dzira M Zundullah</t>
-  </si>
-  <si>
-    <t>08-12-2024</t>
-  </si>
-  <si>
-    <t>Fawwaz Nur F</t>
-  </si>
-  <si>
-    <t>M Fitra Ramadhan</t>
-  </si>
-  <si>
-    <t>M Azhar Firdhaus</t>
-  </si>
-  <si>
-    <t>09-12-2024</t>
-  </si>
-  <si>
-    <t>Moch Rizky Abdurrahman</t>
-  </si>
-  <si>
-    <t>Daffa Ahmad S</t>
-  </si>
-  <si>
-    <t>Alif Nul Hakim</t>
-  </si>
-  <si>
-    <t>10-12-2024</t>
-  </si>
-  <si>
-    <t>Virgie M Yassarsyah</t>
-  </si>
-  <si>
-    <t>M Rizky Firdaus</t>
-  </si>
-  <si>
-    <t>Akmal Yazid R</t>
-  </si>
-  <si>
-    <t>11-12-2024</t>
-  </si>
-  <si>
-    <t>M Daffa Al-Khoiri S</t>
-  </si>
-  <si>
-    <t>Indra M Ardiansyah</t>
-  </si>
-  <si>
-    <t>Rodiyyan Hadi N</t>
-  </si>
-  <si>
-    <t>12-12-2024</t>
-  </si>
-  <si>
-    <t>Alpha Daffa A</t>
-  </si>
-  <si>
-    <t>Febryan Pandu R</t>
-  </si>
-  <si>
-    <t>M Wildan Kholilulloh</t>
-  </si>
-  <si>
-    <t>13-12-2024</t>
-  </si>
-  <si>
-    <t>Fadhillah Rahmat D F</t>
-  </si>
-  <si>
-    <t>14-12-2024</t>
   </si>
   <si>
     <t>M Rifqi Agustian</t>
@@ -751,30 +970,27 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="28.136" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -790,650 +1006,882 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="E34" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
         <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
